--- a/AAEセンサ生産.xlsx
+++ b/AAEセンサ生産.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mochida.Tetsuya\source\repos\hamas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11554A11-D8DB-4247-A8A4-12DD04AFED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BBD513-2414-4E7A-9643-B8056A342D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="199">
   <si>
     <t>＃</t>
     <phoneticPr fontId="1"/>
@@ -1634,13 +1634,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DOPP試薬</t>
-    <rPh sb="4" eb="6">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DOPPメーカ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1700,13 +1693,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２C８試薬</t>
-    <rPh sb="3" eb="5">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>２C８メーカ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1762,13 +1748,6 @@
     <t>２C８管理コード</t>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TOMA試薬</t>
-    <rPh sb="4" eb="6">
-      <t>シヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2240,49 +2219,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS16"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.8984375" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3984375" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.3984375" customWidth="1"/>
-    <col min="32" max="32" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.3984375" customWidth="1"/>
-    <col min="39" max="39" width="38.09765625" customWidth="1"/>
-    <col min="41" max="42" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.3984375" customWidth="1"/>
+    <col min="20" max="20" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.3984375" customWidth="1"/>
+    <col min="28" max="28" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.3984375" customWidth="1"/>
+    <col min="35" max="35" width="38.09765625" customWidth="1"/>
+    <col min="37" max="38" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="AO2" s="8" t="s">
+    <row r="2" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AK2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2290,202 +2268,190 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AL6" t="s">
         <v>197</v>
       </c>
-      <c r="AK3" s="4" t="s">
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK7" t="s">
         <v>198</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM3" s="4" t="s">
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="AK16" t="s">
         <v>73</v>
       </c>
-      <c r="AO3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AP6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO9" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="AO16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP16" t="s">
+      <c r="AL16" t="s">
         <v>159</v>
       </c>
     </row>

--- a/AAEセンサ生産.xlsx
+++ b/AAEセンサ生産.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mochida.Tetsuya\source\repos\hamas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BBD513-2414-4E7A-9643-B8056A342D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF00470A-F03B-4AEE-B9FB-EAD8B987F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="秤量" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="検査" sheetId="7" r:id="rId6"/>
     <sheet name="薬品表" sheetId="2" r:id="rId7"/>
     <sheet name="出荷期限" sheetId="10" r:id="rId8"/>
+    <sheet name="合否判定" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="190">
   <si>
     <t>＃</t>
     <phoneticPr fontId="1"/>
@@ -342,153 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試薬１０</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否１０</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０１</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０１</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０２</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０２</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０３</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０３</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０４</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０４</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０５</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０５</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０６</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０６</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０７</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０７</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０８</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０８</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試薬０９</t>
-    <rPh sb="0" eb="2">
-      <t>シヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合否０９</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総合</t>
-    <rPh sb="0" eb="2">
-      <t>ソウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>乾燥開始日</t>
     <rPh sb="0" eb="2">
       <t>カンソウ</t>
@@ -512,10 +366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KEY01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始担当</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
@@ -598,42 +448,6 @@
     <rPh sb="0" eb="2">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY07</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY08</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY09</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KEY10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1833,12 +1647,156 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>AAE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CT0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CA0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AE1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AN0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BT0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AAZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GL1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GE1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮データ</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下限</t>
+    <rPh sb="0" eb="2">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試薬</t>
+    <rPh sb="0" eb="2">
+      <t>シヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩化ビニルポリマー</t>
+  </si>
+  <si>
+    <t>この管理（上限／下限）でよい？</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流込担当</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャーレ確認日</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬品瓶確認日</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流込日</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1866,16 +1824,28 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1912,11 +1882,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1939,8 +1927,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2221,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2248,7 +2249,7 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2268,111 +2269,111 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="AI3" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="AK4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.45">
@@ -2382,17 +2383,17 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="AL6" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="AK7" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="AK9" s="8" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
@@ -2404,7 +2405,7 @@
         <v>41</v>
       </c>
       <c r="AL10" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.45">
@@ -2412,7 +2413,7 @@
         <v>24</v>
       </c>
       <c r="AL11" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.45">
@@ -2420,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="AL12" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.45">
@@ -2428,7 +2429,7 @@
         <v>36</v>
       </c>
       <c r="AL13" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.45">
@@ -2436,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="AL14" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.45">
@@ -2444,15 +2445,15 @@
         <v>1</v>
       </c>
       <c r="AL15" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="AK16" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2464,162 +2465,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895D5784-8201-4AF5-A258-4D428ED6C41A}">
-  <dimension ref="A1:XFA16"/>
+  <dimension ref="A1:XDY16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.09765625" customWidth="1"/>
-    <col min="4" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.8984375" customWidth="1"/>
-    <col min="10" max="39" width="7" customWidth="1"/>
-    <col min="41" max="41" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.19921875" customWidth="1"/>
+    <col min="7" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.8984375" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="AO2" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-    </row>
-    <row r="3" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="AC3" s="7"/>
+      <c r="AQ3" s="7"/>
       <c r="BE3" s="7"/>
       <c r="BS3" s="7"/>
       <c r="CG3" s="7"/>
@@ -3785,70 +3705,68 @@
       <c r="XCW3" s="7"/>
       <c r="XDK3" s="7"/>
       <c r="XDY3" s="7"/>
-      <c r="XEM3" s="7"/>
-      <c r="XFA3" s="7"/>
-    </row>
-    <row r="4" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AP7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AP8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-    </row>
-    <row r="14" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO14" t="s">
+    </row>
+    <row r="4" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
         <v>66</v>
       </c>
-      <c r="AP14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO15" t="s">
+    </row>
+    <row r="9" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
         <v>67</v>
       </c>
-      <c r="AP15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
-      <c r="AO16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>112</v>
+    </row>
+    <row r="13" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16353" x14ac:dyDescent="0.45">
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3780,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:O11"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3873,7 +3791,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3896,40 +3814,40 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K4" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K5" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K8" s="8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3938,26 +3856,26 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K10" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K11" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +3900,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -4002,7 +3920,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
@@ -4011,55 +3929,55 @@
         <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J5" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J6" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J10" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J11" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I13" s="8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="J13" s="8"/>
     </row>
@@ -4068,7 +3986,7 @@
         <v>22</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -4076,15 +3994,15 @@
         <v>38</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4110,7 +4028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -4133,46 +4051,46 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M5" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M8" s="8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -4181,34 +4099,34 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M12" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4156,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -4261,145 +4179,145 @@
         <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="AE3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE4" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE5" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE6" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE7" s="10" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE8" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE9" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE10" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE11" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE12" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE13" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE14" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="31:35" x14ac:dyDescent="0.45">
       <c r="AE18" s="8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
@@ -4408,12 +4326,12 @@
     </row>
     <row r="19" spans="31:35" x14ac:dyDescent="0.45">
       <c r="AE19" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="31:35" x14ac:dyDescent="0.45">
       <c r="AF20" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4427,7 +4345,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4446,6 +4364,9 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
@@ -4562,13 +4483,13 @@
         <v>90258237</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -4600,7 +4521,7 @@
         <v>312</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -4680,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A611FD7-C673-4E46-B583-CD40A1013857}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
@@ -4688,13 +4609,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.796875" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="1" customWidth="1"/>
     <col min="2" max="4" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>149</v>
+    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -4706,11 +4630,394 @@
         <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>148</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBDBF67-1086-484D-963A-99A656082094}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="5" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="G2" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1">
+        <v>800</v>
+      </c>
+      <c r="E4" s="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1199</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1199</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>633</v>
+      </c>
+      <c r="E7" s="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
